--- a/similarities/split_global/harmonic_similarity_timestamps_320.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_320.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:28.583470', '0:01:38.974002')]</t>
+          <t>('0:01:04.300000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:20.801000', '0:00:27.165000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=88.58347']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:22.500000', '0:01:30.740000')]</t>
+          <t>('0:01:04.300000', '0:01:07.900000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000')]</t>
+          <t>('0:00:19.720000', '0:00:23.080000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=19.72</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'D']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+          <t>('0:00:11.440000', '0:00:16.380000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:49.402280', '0:00:59.224321')]</t>
+          <t>('0:00:48', '0:00:52.200000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=49.40228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>isophonics_273</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['B', 'F#', 'B']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:41.840000', '0:00:45.380000'), ('0:01:06.040000', '0:01:11.560000')]</t>
+          <t>('0:00:20.801000', '0:00:27.165000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:32.040000', '0:01:44.400000'), ('0:01:40.900000', '0:01:56.600000')]</t>
+          <t>('0:00:24.838594', '0:00:43.252018')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=41.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=66.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=92.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=100.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#:maj/A#', 'F:min'], ['G:hdim7/C#', 'C:7', 'F:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:46.100000', '0:00:49.040000'), ('0:01:49.380000', '0:02:03.260000')]</t>
+          <t>('0:00:46.600000', '0:00:49.040000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:03:09.260000', '0:03:11.680000'), ('0:00:24.240000', '0:00:30.960000')]</t>
+          <t>('0:00:00.740000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=46.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=109.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=189.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=24.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:49.740000', '0:00:57.920000')]</t>
+          <t>('0:00:35.860000', '0:00:39.460000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:36.711000', '0:00:39.787000')]</t>
+          <t>('0:00:39.020000', '0:00:47.120000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=49.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=35.86</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-233#t=36.711']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=39.02</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+          <t>('0:00:41.580000', '0:00:43.480000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:24.680000', '0:00:31.240000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>jaah_8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>jaah_20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['D:7', 'G:7', 'C:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+          <t>('0:00:17.150000', '0:00:23.300000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+          <t>('0:00:21.040000', '0:00:34.940000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-8#t=17.15</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=21.04</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:41.760000', '0:00:45.160000'), ('0:01:04.680000', '0:01:10.020000')]</t>
+          <t>('0:00:23.575000', '0:00:34.995000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:32.040000', '0:01:44.400000'), ('0:01:40.900000', '0:01:56.600000')]</t>
+          <t>('0:01:05.760000', '0:01:11.940000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=41.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=64.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=23.575</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=92.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=100.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=65.76</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['B:min7/4', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:17.720000', '0:01:28'), ('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:00:47.371000', '0:00:50.945000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:01:04.660000', '0:01:11.060000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=47.371</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=64.66</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:15.027029', '0:00:22.457415')]</t>
+          <t>('0:00:27.600000', '0:00:54.260000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:01:52.240000', '0:01:54.880000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=15.027029']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=27.6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=112.24</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_121</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['A', 'B', 'E']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A', 'B', 'E']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:00:07.935986', '0:00:12.498707')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:00:12.971000', '0:00:23.861000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-121#t=7.935986</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=12.971</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:04.160000', '0:00:08.800000')]</t>
+          <t>('0:00:19.130000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:16.580000', '0:00:22.660000')]</t>
+          <t>('0:01:05.440000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=4.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:27.660000', '0:01:36.720000'), ('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:37.995918', '0:00:46.610521')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:10.560000', '0:00:17.340000'), ('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_88</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Eb:min7', 'Ab:7', 'Db:7']]</t>
+          <t>['G:7', 'C:min', 'B:dim7/C', 'C:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:7']]</t>
+          <t>['E:7', 'A:min', 'G#:dim7', 'A:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:53.250000', '0:00:54.920000')]</t>
+          <t>('0:01:15.720000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:21.240000')]</t>
+          <t>('0:00:20.380000', '0:00:24.760000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=53.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=75.72</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=13.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=20.38</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
